--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd200-Cd200r4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd200-Cd200r4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>66.09348033333333</v>
+        <v>59.09291099999999</v>
       </c>
       <c r="H2">
-        <v>198.280441</v>
+        <v>177.278733</v>
       </c>
       <c r="I2">
-        <v>0.7128403622257816</v>
+        <v>0.6956178232042413</v>
       </c>
       <c r="J2">
-        <v>0.7128403622257816</v>
+        <v>0.6956178232042414</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2003096666666667</v>
+        <v>0.11758</v>
       </c>
       <c r="N2">
-        <v>0.600929</v>
+        <v>0.35274</v>
       </c>
       <c r="O2">
-        <v>0.006100846006098117</v>
+        <v>0.006527929624943481</v>
       </c>
       <c r="P2">
-        <v>0.006100846006098115</v>
+        <v>0.006527929624943479</v>
       </c>
       <c r="Q2">
-        <v>13.23916301440989</v>
+        <v>6.948144475379999</v>
       </c>
       <c r="R2">
-        <v>119.152467129689</v>
+        <v>62.53330027841999</v>
       </c>
       <c r="S2">
-        <v>0.004348929276870694</v>
+        <v>0.004540944195733663</v>
       </c>
       <c r="T2">
-        <v>0.004348929276870694</v>
+        <v>0.004540944195733663</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>66.09348033333333</v>
+        <v>59.09291099999999</v>
       </c>
       <c r="H3">
-        <v>198.280441</v>
+        <v>177.278733</v>
       </c>
       <c r="I3">
-        <v>0.7128403622257816</v>
+        <v>0.6956178232042413</v>
       </c>
       <c r="J3">
-        <v>0.7128403622257816</v>
+        <v>0.6956178232042414</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>19.02264266666667</v>
+        <v>0.2003096666666667</v>
       </c>
       <c r="N3">
-        <v>57.06792799999999</v>
+        <v>0.600929</v>
       </c>
       <c r="O3">
-        <v>0.5793740036095693</v>
+        <v>0.01112100193226643</v>
       </c>
       <c r="P3">
-        <v>0.5793740036095691</v>
+        <v>0.01112100193226643</v>
       </c>
       <c r="Q3">
-        <v>1257.272658977361</v>
+        <v>11.836881304773</v>
       </c>
       <c r="R3">
-        <v>11315.45393079625</v>
+        <v>106.531931742957</v>
       </c>
       <c r="S3">
-        <v>0.4130011745972467</v>
+        <v>0.007735967155973336</v>
       </c>
       <c r="T3">
-        <v>0.4130011745972466</v>
+        <v>0.007735967155973336</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>66.09348033333333</v>
+        <v>59.09291099999999</v>
       </c>
       <c r="H4">
-        <v>198.280441</v>
+        <v>177.278733</v>
       </c>
       <c r="I4">
-        <v>0.7128403622257816</v>
+        <v>0.6956178232042413</v>
       </c>
       <c r="J4">
-        <v>0.7128403622257816</v>
+        <v>0.6956178232042414</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.034539</v>
+        <v>6.988646333333333</v>
       </c>
       <c r="N4">
-        <v>0.103617</v>
+        <v>20.965939</v>
       </c>
       <c r="O4">
-        <v>0.001051956821211605</v>
+        <v>0.3880029889234503</v>
       </c>
       <c r="P4">
-        <v>0.001051956821211605</v>
+        <v>0.3880029889234503</v>
       </c>
       <c r="Q4">
-        <v>2.282802717233</v>
+        <v>412.9794557861429</v>
       </c>
       <c r="R4">
-        <v>20.545224455097</v>
+        <v>3716.815102075287</v>
       </c>
       <c r="S4">
-        <v>0.0007498772814783621</v>
+        <v>0.2699017945516698</v>
       </c>
       <c r="T4">
-        <v>0.0007498772814783621</v>
+        <v>0.2699017945516698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>66.09348033333333</v>
+        <v>59.09291099999999</v>
       </c>
       <c r="H5">
-        <v>198.280441</v>
+        <v>177.278733</v>
       </c>
       <c r="I5">
-        <v>0.7128403622257816</v>
+        <v>0.6956178232042413</v>
       </c>
       <c r="J5">
-        <v>0.7128403622257816</v>
+        <v>0.6956178232042414</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>13.57560533333333</v>
+        <v>0.034539</v>
       </c>
       <c r="N5">
-        <v>40.726816</v>
+        <v>0.103617</v>
       </c>
       <c r="O5">
-        <v>0.4134731935631212</v>
+        <v>0.001917572387446189</v>
       </c>
       <c r="P5">
-        <v>0.4134731935631211</v>
+        <v>0.001917572387446188</v>
       </c>
       <c r="Q5">
-        <v>897.2590041117618</v>
+        <v>2.041010053029</v>
       </c>
       <c r="R5">
-        <v>8075.331037005856</v>
+        <v>18.369090477261</v>
       </c>
       <c r="S5">
-        <v>0.294740381070186</v>
+        <v>0.001333897529991878</v>
       </c>
       <c r="T5">
-        <v>0.294740381070186</v>
+        <v>0.001333897529991878</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.879461333333333</v>
+        <v>59.09291099999999</v>
       </c>
       <c r="H6">
-        <v>8.638384</v>
+        <v>177.278733</v>
       </c>
       <c r="I6">
-        <v>0.0310559566468051</v>
+        <v>0.6956178232042413</v>
       </c>
       <c r="J6">
-        <v>0.0310559566468051</v>
+        <v>0.6956178232042414</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2003096666666667</v>
+        <v>10.67076133333333</v>
       </c>
       <c r="N6">
-        <v>0.600929</v>
+        <v>32.012284</v>
       </c>
       <c r="O6">
-        <v>0.006100846006098117</v>
+        <v>0.5924305071318936</v>
       </c>
       <c r="P6">
-        <v>0.006100846006098115</v>
+        <v>0.5924305071318936</v>
       </c>
       <c r="Q6">
-        <v>0.5767839398595557</v>
+        <v>630.5663497729079</v>
       </c>
       <c r="R6">
-        <v>5.191055458736001</v>
+        <v>5675.097147956172</v>
       </c>
       <c r="S6">
-        <v>0.0001894676090742172</v>
+        <v>0.4121052197708726</v>
       </c>
       <c r="T6">
-        <v>0.0001894676090742171</v>
+        <v>0.4121052197708726</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,43 +853,43 @@
         <v>2.879461333333333</v>
       </c>
       <c r="H7">
-        <v>8.638384</v>
+        <v>8.638383999999999</v>
       </c>
       <c r="I7">
-        <v>0.0310559566468051</v>
+        <v>0.03389585300162511</v>
       </c>
       <c r="J7">
-        <v>0.0310559566468051</v>
+        <v>0.03389585300162511</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>19.02264266666667</v>
+        <v>0.11758</v>
       </c>
       <c r="N7">
-        <v>57.06792799999999</v>
+        <v>0.35274</v>
       </c>
       <c r="O7">
-        <v>0.5793740036095693</v>
+        <v>0.006527929624943481</v>
       </c>
       <c r="P7">
-        <v>0.5793740036095691</v>
+        <v>0.006527929624943479</v>
       </c>
       <c r="Q7">
-        <v>54.77496401648356</v>
+        <v>0.3385670635733333</v>
       </c>
       <c r="R7">
-        <v>492.974676148352</v>
+        <v>3.047103572159999</v>
       </c>
       <c r="S7">
-        <v>0.01799301393838468</v>
+        <v>0.0002212697429720379</v>
       </c>
       <c r="T7">
-        <v>0.01799301393838468</v>
+        <v>0.0002212697429720379</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,13 +915,13 @@
         <v>2.879461333333333</v>
       </c>
       <c r="H8">
-        <v>8.638384</v>
+        <v>8.638383999999999</v>
       </c>
       <c r="I8">
-        <v>0.0310559566468051</v>
+        <v>0.03389585300162511</v>
       </c>
       <c r="J8">
-        <v>0.0310559566468051</v>
+        <v>0.03389585300162511</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.034539</v>
+        <v>0.2003096666666667</v>
       </c>
       <c r="N8">
-        <v>0.103617</v>
+        <v>0.600929</v>
       </c>
       <c r="O8">
-        <v>0.001051956821211605</v>
+        <v>0.01112100193226643</v>
       </c>
       <c r="P8">
-        <v>0.001051956821211605</v>
+        <v>0.01112100193226643</v>
       </c>
       <c r="Q8">
-        <v>0.09945371499200001</v>
+        <v>0.5767839398595556</v>
       </c>
       <c r="R8">
-        <v>0.895083434928</v>
+        <v>5.191055458736</v>
       </c>
       <c r="S8">
-        <v>3.26695254338585E-05</v>
+        <v>0.0003769558467268917</v>
       </c>
       <c r="T8">
-        <v>3.26695254338585E-05</v>
+        <v>0.0003769558467268917</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,13 +977,13 @@
         <v>2.879461333333333</v>
       </c>
       <c r="H9">
-        <v>8.638384</v>
+        <v>8.638383999999999</v>
       </c>
       <c r="I9">
-        <v>0.0310559566468051</v>
+        <v>0.03389585300162511</v>
       </c>
       <c r="J9">
-        <v>0.0310559566468051</v>
+        <v>0.03389585300162511</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.57560533333333</v>
+        <v>6.988646333333333</v>
       </c>
       <c r="N9">
-        <v>40.726816</v>
+        <v>20.965939</v>
       </c>
       <c r="O9">
-        <v>0.4134731935631212</v>
+        <v>0.3880029889234503</v>
       </c>
       <c r="P9">
-        <v>0.4134731935631211</v>
+        <v>0.3880029889234503</v>
       </c>
       <c r="Q9">
-        <v>39.09043063392711</v>
+        <v>20.12353688917511</v>
       </c>
       <c r="R9">
-        <v>351.813875705344</v>
+        <v>181.111832002576</v>
       </c>
       <c r="S9">
-        <v>0.01284080557391235</v>
+        <v>0.01315169227674045</v>
       </c>
       <c r="T9">
-        <v>0.01284080557391234</v>
+        <v>0.01315169227674044</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.566549333333333</v>
+        <v>2.879461333333333</v>
       </c>
       <c r="H10">
-        <v>7.699648</v>
+        <v>8.638383999999999</v>
       </c>
       <c r="I10">
-        <v>0.02768109573314402</v>
+        <v>0.03389585300162511</v>
       </c>
       <c r="J10">
-        <v>0.02768109573314402</v>
+        <v>0.03389585300162511</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,33 +1054,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.2003096666666667</v>
+        <v>0.034539</v>
       </c>
       <c r="N10">
-        <v>0.600929</v>
+        <v>0.103617</v>
       </c>
       <c r="O10">
-        <v>0.006100846006098117</v>
+        <v>0.001917572387446189</v>
       </c>
       <c r="P10">
-        <v>0.006100846006098115</v>
+        <v>0.001917572387446188</v>
       </c>
       <c r="Q10">
-        <v>0.5141046414435556</v>
+        <v>0.09945371499199999</v>
       </c>
       <c r="R10">
-        <v>4.626941772992001</v>
+        <v>0.8950834349279998</v>
       </c>
       <c r="S10">
-        <v>0.0001688781023479713</v>
+        <v>6.499775176485131E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001688781023479713</v>
+        <v>6.49977517648513E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.566549333333333</v>
+        <v>2.879461333333333</v>
       </c>
       <c r="H11">
-        <v>7.699648</v>
+        <v>8.638383999999999</v>
       </c>
       <c r="I11">
-        <v>0.02768109573314402</v>
+        <v>0.03389585300162511</v>
       </c>
       <c r="J11">
-        <v>0.02768109573314402</v>
+        <v>0.03389585300162511</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.02264266666667</v>
+        <v>10.67076133333333</v>
       </c>
       <c r="N11">
-        <v>57.06792799999999</v>
+        <v>32.012284</v>
       </c>
       <c r="O11">
-        <v>0.5793740036095693</v>
+        <v>0.5924305071318936</v>
       </c>
       <c r="P11">
-        <v>0.5793740036095691</v>
+        <v>0.5924305071318936</v>
       </c>
       <c r="Q11">
-        <v>48.82255085437155</v>
+        <v>30.72604465656177</v>
       </c>
       <c r="R11">
-        <v>439.402957689344</v>
+        <v>276.534401909056</v>
       </c>
       <c r="S11">
-        <v>0.01603770725921141</v>
+        <v>0.02008093738342088</v>
       </c>
       <c r="T11">
-        <v>0.01603770725921141</v>
+        <v>0.02008093738342088</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,25 +1151,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.566549333333333</v>
+        <v>0.7522869999999999</v>
       </c>
       <c r="H12">
-        <v>7.699648</v>
+        <v>2.256861</v>
       </c>
       <c r="I12">
-        <v>0.02768109573314402</v>
+        <v>0.008855617983768799</v>
       </c>
       <c r="J12">
-        <v>0.02768109573314402</v>
+        <v>0.008855617983768799</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.034539</v>
+        <v>0.11758</v>
       </c>
       <c r="N12">
-        <v>0.103617</v>
+        <v>0.35274</v>
       </c>
       <c r="O12">
-        <v>0.001051956821211605</v>
+        <v>0.006527929624943481</v>
       </c>
       <c r="P12">
-        <v>0.001051956821211605</v>
+        <v>0.006527929624943479</v>
       </c>
       <c r="Q12">
-        <v>0.08864604742399999</v>
+        <v>0.08845390546</v>
       </c>
       <c r="R12">
-        <v>0.797814426816</v>
+        <v>0.7960851491399999</v>
       </c>
       <c r="S12">
-        <v>2.91193174750923E-05</v>
+        <v>5.780885098342659E-05</v>
       </c>
       <c r="T12">
-        <v>2.91193174750923E-05</v>
+        <v>5.780885098342658E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>2.566549333333333</v>
+        <v>0.7522869999999999</v>
       </c>
       <c r="H13">
-        <v>7.699648</v>
+        <v>2.256861</v>
       </c>
       <c r="I13">
-        <v>0.02768109573314402</v>
+        <v>0.008855617983768799</v>
       </c>
       <c r="J13">
-        <v>0.02768109573314402</v>
+        <v>0.008855617983768799</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>13.57560533333333</v>
+        <v>0.2003096666666667</v>
       </c>
       <c r="N13">
-        <v>40.726816</v>
+        <v>0.600929</v>
       </c>
       <c r="O13">
-        <v>0.4134731935631212</v>
+        <v>0.01112100193226643</v>
       </c>
       <c r="P13">
-        <v>0.4134731935631211</v>
+        <v>0.01112100193226643</v>
       </c>
       <c r="Q13">
-        <v>34.84246081786311</v>
+        <v>0.1506903582076667</v>
       </c>
       <c r="R13">
-        <v>313.582147360768</v>
+        <v>1.356213223869</v>
       </c>
       <c r="S13">
-        <v>0.01144539105410955</v>
+        <v>9.848334470890617E-05</v>
       </c>
       <c r="T13">
-        <v>0.01144539105410954</v>
+        <v>9.848334470890615E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>20.10853233333334</v>
+        <v>0.7522869999999999</v>
       </c>
       <c r="H14">
-        <v>60.32559700000001</v>
+        <v>2.256861</v>
       </c>
       <c r="I14">
-        <v>0.2168772683785111</v>
+        <v>0.008855617983768799</v>
       </c>
       <c r="J14">
-        <v>0.2168772683785111</v>
+        <v>0.008855617983768799</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2003096666666667</v>
+        <v>6.988646333333333</v>
       </c>
       <c r="N14">
-        <v>0.600929</v>
+        <v>20.965939</v>
       </c>
       <c r="O14">
-        <v>0.006100846006098117</v>
+        <v>0.3880029889234503</v>
       </c>
       <c r="P14">
-        <v>0.006100846006098115</v>
+        <v>0.3880029889234503</v>
       </c>
       <c r="Q14">
-        <v>4.02793340884589</v>
+        <v>5.257467784164333</v>
       </c>
       <c r="R14">
-        <v>36.25140067961301</v>
+        <v>47.317210057479</v>
       </c>
       <c r="S14">
-        <v>0.001323134816600509</v>
+        <v>0.003436006246466553</v>
       </c>
       <c r="T14">
-        <v>0.001323134816600508</v>
+        <v>0.003436006246466552</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>20.10853233333334</v>
+        <v>0.7522869999999999</v>
       </c>
       <c r="H15">
-        <v>60.32559700000001</v>
+        <v>2.256861</v>
       </c>
       <c r="I15">
-        <v>0.2168772683785111</v>
+        <v>0.008855617983768799</v>
       </c>
       <c r="J15">
-        <v>0.2168772683785111</v>
+        <v>0.008855617983768799</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>19.02264266666667</v>
+        <v>0.034539</v>
       </c>
       <c r="N15">
-        <v>57.06792799999999</v>
+        <v>0.103617</v>
       </c>
       <c r="O15">
-        <v>0.5793740036095693</v>
+        <v>0.001917572387446189</v>
       </c>
       <c r="P15">
-        <v>0.5793740036095691</v>
+        <v>0.001917572387446188</v>
       </c>
       <c r="Q15">
-        <v>382.517425128113</v>
+        <v>0.025983240693</v>
       </c>
       <c r="R15">
-        <v>3442.656826153016</v>
+        <v>0.233849166237</v>
       </c>
       <c r="S15">
-        <v>0.125653051272365</v>
+        <v>1.698128851944694E-05</v>
       </c>
       <c r="T15">
-        <v>0.125653051272365</v>
+        <v>1.698128851944694E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>20.10853233333334</v>
+        <v>0.7522869999999999</v>
       </c>
       <c r="H16">
-        <v>60.32559700000001</v>
+        <v>2.256861</v>
       </c>
       <c r="I16">
-        <v>0.2168772683785111</v>
+        <v>0.008855617983768799</v>
       </c>
       <c r="J16">
-        <v>0.2168772683785111</v>
+        <v>0.008855617983768799</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.034539</v>
+        <v>10.67076133333333</v>
       </c>
       <c r="N16">
-        <v>0.103617</v>
+        <v>32.012284</v>
       </c>
       <c r="O16">
-        <v>0.001051956821211605</v>
+        <v>0.5924305071318936</v>
       </c>
       <c r="P16">
-        <v>0.001051956821211605</v>
+        <v>0.5924305071318936</v>
       </c>
       <c r="Q16">
-        <v>0.6945285982610001</v>
+        <v>8.027475031169333</v>
       </c>
       <c r="R16">
-        <v>6.250757384349001</v>
+        <v>72.24727528052399</v>
       </c>
       <c r="S16">
-        <v>0.0002281455218365146</v>
+        <v>0.005246338253090467</v>
       </c>
       <c r="T16">
-        <v>0.0002281455218365146</v>
+        <v>0.005246338253090467</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.10853233333334</v>
+        <v>21.95856566666667</v>
       </c>
       <c r="H17">
-        <v>60.32559700000001</v>
+        <v>65.875697</v>
       </c>
       <c r="I17">
-        <v>0.2168772683785111</v>
+        <v>0.2584873446111676</v>
       </c>
       <c r="J17">
-        <v>0.2168772683785111</v>
+        <v>0.2584873446111676</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>13.57560533333333</v>
+        <v>0.11758</v>
       </c>
       <c r="N17">
-        <v>40.726816</v>
+        <v>0.35274</v>
       </c>
       <c r="O17">
-        <v>0.4134731935631212</v>
+        <v>0.006527929624943481</v>
       </c>
       <c r="P17">
-        <v>0.4134731935631211</v>
+        <v>0.006527929624943479</v>
       </c>
       <c r="Q17">
-        <v>272.9854987899058</v>
+        <v>2.581888151086667</v>
       </c>
       <c r="R17">
-        <v>2456.869489109152</v>
+        <v>23.23699335978</v>
       </c>
       <c r="S17">
-        <v>0.0896729367677091</v>
+        <v>0.001687387194560216</v>
       </c>
       <c r="T17">
-        <v>0.08967293676770909</v>
+        <v>0.001687387194560215</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.070464333333333</v>
+        <v>21.95856566666667</v>
       </c>
       <c r="H18">
-        <v>3.211393</v>
+        <v>65.875697</v>
       </c>
       <c r="I18">
-        <v>0.0115453170157582</v>
+        <v>0.2584873446111676</v>
       </c>
       <c r="J18">
-        <v>0.0115453170157582</v>
+        <v>0.2584873446111676</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,27 +1556,27 @@
         <v>0.600929</v>
       </c>
       <c r="O18">
-        <v>0.006100846006098117</v>
+        <v>0.01112100193226643</v>
       </c>
       <c r="P18">
-        <v>0.006100846006098115</v>
+        <v>0.01112100193226643</v>
       </c>
       <c r="Q18">
-        <v>0.2144243537885556</v>
+        <v>4.398512969168112</v>
       </c>
       <c r="R18">
-        <v>1.929819184097</v>
+        <v>39.58661672251301</v>
       </c>
       <c r="S18">
-        <v>7.043620120472506E-05</v>
+        <v>0.002874638258887214</v>
       </c>
       <c r="T18">
-        <v>7.043620120472501E-05</v>
+        <v>0.002874638258887213</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.070464333333333</v>
+        <v>21.95856566666667</v>
       </c>
       <c r="H19">
-        <v>3.211393</v>
+        <v>65.875697</v>
       </c>
       <c r="I19">
-        <v>0.0115453170157582</v>
+        <v>0.2584873446111676</v>
       </c>
       <c r="J19">
-        <v>0.0115453170157582</v>
+        <v>0.2584873446111676</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.02264266666667</v>
+        <v>6.988646333333333</v>
       </c>
       <c r="N19">
-        <v>57.06792799999999</v>
+        <v>20.965939</v>
       </c>
       <c r="O19">
-        <v>0.5793740036095693</v>
+        <v>0.3880029889234503</v>
       </c>
       <c r="P19">
-        <v>0.5793740036095691</v>
+        <v>0.3880029889234503</v>
       </c>
       <c r="Q19">
-        <v>20.36306050041156</v>
+        <v>153.4606494316092</v>
       </c>
       <c r="R19">
-        <v>183.267544503704</v>
+        <v>1381.145844884483</v>
       </c>
       <c r="S19">
-        <v>0.006689056542361514</v>
+        <v>0.100293862308019</v>
       </c>
       <c r="T19">
-        <v>0.006689056542361511</v>
+        <v>0.1002938623080189</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1.070464333333333</v>
+        <v>21.95856566666667</v>
       </c>
       <c r="H20">
-        <v>3.211393</v>
+        <v>65.875697</v>
       </c>
       <c r="I20">
-        <v>0.0115453170157582</v>
+        <v>0.2584873446111676</v>
       </c>
       <c r="J20">
-        <v>0.0115453170157582</v>
+        <v>0.2584873446111676</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1680,27 +1680,27 @@
         <v>0.103617</v>
       </c>
       <c r="O20">
-        <v>0.001051956821211605</v>
+        <v>0.001917572387446189</v>
       </c>
       <c r="P20">
-        <v>0.001051956821211605</v>
+        <v>0.001917572387446188</v>
       </c>
       <c r="Q20">
-        <v>0.03697276760900001</v>
+        <v>0.7584268995610001</v>
       </c>
       <c r="R20">
-        <v>0.332754908481</v>
+        <v>6.825842096049</v>
       </c>
       <c r="S20">
-        <v>1.214517498777725E-05</v>
+        <v>0.0004956681945306624</v>
       </c>
       <c r="T20">
-        <v>1.214517498777725E-05</v>
+        <v>0.0004956681945306623</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>21.95856566666667</v>
+      </c>
+      <c r="H21">
+        <v>65.875697</v>
+      </c>
+      <c r="I21">
+        <v>0.2584873446111676</v>
+      </c>
+      <c r="J21">
+        <v>0.2584873446111676</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.67076133333333</v>
+      </c>
+      <c r="N21">
+        <v>32.012284</v>
+      </c>
+      <c r="O21">
+        <v>0.5924305071318936</v>
+      </c>
+      <c r="P21">
+        <v>0.5924305071318936</v>
+      </c>
+      <c r="Q21">
+        <v>234.3146134513276</v>
+      </c>
+      <c r="R21">
+        <v>2108.831521061948</v>
+      </c>
+      <c r="S21">
+        <v>0.1531357886551706</v>
+      </c>
+      <c r="T21">
+        <v>0.1531357886551706</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G21">
-        <v>1.070464333333333</v>
-      </c>
-      <c r="H21">
-        <v>3.211393</v>
-      </c>
-      <c r="I21">
-        <v>0.0115453170157582</v>
-      </c>
-      <c r="J21">
-        <v>0.0115453170157582</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>13.57560533333333</v>
-      </c>
-      <c r="N21">
-        <v>40.726816</v>
-      </c>
-      <c r="O21">
-        <v>0.4134731935631212</v>
-      </c>
-      <c r="P21">
-        <v>0.4134731935631211</v>
-      </c>
-      <c r="Q21">
-        <v>14.53220131274311</v>
-      </c>
-      <c r="R21">
-        <v>130.789811814688</v>
-      </c>
-      <c r="S21">
-        <v>0.004773679097204188</v>
-      </c>
-      <c r="T21">
-        <v>0.004773679097204186</v>
+      <c r="G22">
+        <v>0.2670293333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.801088</v>
+      </c>
+      <c r="I22">
+        <v>0.003143361199197195</v>
+      </c>
+      <c r="J22">
+        <v>0.003143361199197195</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.11758</v>
+      </c>
+      <c r="N22">
+        <v>0.35274</v>
+      </c>
+      <c r="O22">
+        <v>0.006527929624943481</v>
+      </c>
+      <c r="P22">
+        <v>0.006527929624943479</v>
+      </c>
+      <c r="Q22">
+        <v>0.03139730901333333</v>
+      </c>
+      <c r="R22">
+        <v>0.28257578112</v>
+      </c>
+      <c r="S22">
+        <v>2.051964069413723E-05</v>
+      </c>
+      <c r="T22">
+        <v>2.051964069413723E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2670293333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.801088</v>
+      </c>
+      <c r="I23">
+        <v>0.003143361199197195</v>
+      </c>
+      <c r="J23">
+        <v>0.003143361199197195</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.2003096666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.600929</v>
+      </c>
+      <c r="O23">
+        <v>0.01112100193226643</v>
+      </c>
+      <c r="P23">
+        <v>0.01112100193226643</v>
+      </c>
+      <c r="Q23">
+        <v>0.05348855675022223</v>
+      </c>
+      <c r="R23">
+        <v>0.481397010752</v>
+      </c>
+      <c r="S23">
+        <v>3.495732597008333E-05</v>
+      </c>
+      <c r="T23">
+        <v>3.495732597008333E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.2670293333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.801088</v>
+      </c>
+      <c r="I24">
+        <v>0.003143361199197195</v>
+      </c>
+      <c r="J24">
+        <v>0.003143361199197195</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.988646333333333</v>
+      </c>
+      <c r="N24">
+        <v>20.965939</v>
+      </c>
+      <c r="O24">
+        <v>0.3880029889234503</v>
+      </c>
+      <c r="P24">
+        <v>0.3880029889234503</v>
+      </c>
+      <c r="Q24">
+        <v>1.866173571292444</v>
+      </c>
+      <c r="R24">
+        <v>16.795562141632</v>
+      </c>
+      <c r="S24">
+        <v>0.001219633540554513</v>
+      </c>
+      <c r="T24">
+        <v>0.001219633540554513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2670293333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.801088</v>
+      </c>
+      <c r="I25">
+        <v>0.003143361199197195</v>
+      </c>
+      <c r="J25">
+        <v>0.003143361199197195</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.034539</v>
+      </c>
+      <c r="N25">
+        <v>0.103617</v>
+      </c>
+      <c r="O25">
+        <v>0.001917572387446189</v>
+      </c>
+      <c r="P25">
+        <v>0.001917572387446188</v>
+      </c>
+      <c r="Q25">
+        <v>0.009222926144000001</v>
+      </c>
+      <c r="R25">
+        <v>0.083006335296</v>
+      </c>
+      <c r="S25">
+        <v>6.027622639350279E-06</v>
+      </c>
+      <c r="T25">
+        <v>6.027622639350279E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.2670293333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.801088</v>
+      </c>
+      <c r="I26">
+        <v>0.003143361199197195</v>
+      </c>
+      <c r="J26">
+        <v>0.003143361199197195</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.67076133333333</v>
+      </c>
+      <c r="N26">
+        <v>32.012284</v>
+      </c>
+      <c r="O26">
+        <v>0.5924305071318936</v>
+      </c>
+      <c r="P26">
+        <v>0.5924305071318936</v>
+      </c>
+      <c r="Q26">
+        <v>2.849406284999111</v>
+      </c>
+      <c r="R26">
+        <v>25.644656564992</v>
+      </c>
+      <c r="S26">
+        <v>0.001862223069339111</v>
+      </c>
+      <c r="T26">
+        <v>0.001862223069339112</v>
       </c>
     </row>
   </sheetData>
